--- a/data/prices.xlsx
+++ b/data/prices.xlsx
@@ -14,7 +14,241 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="312">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>censusid</t>
+  </si>
+  <si>
+    <t>foodid</t>
+  </si>
+  <si>
+    <t>food_item</t>
+  </si>
+  <si>
+    <t>mSec30_q1</t>
+  </si>
+  <si>
+    <t>mSec30_q2_units</t>
+  </si>
+  <si>
+    <t>mSec30_q2_code</t>
+  </si>
+  <si>
+    <t>mSec30_q3</t>
+  </si>
+  <si>
+    <t>mSec30_q4_units</t>
+  </si>
+  <si>
+    <t>mSec30_q4_code</t>
+  </si>
+  <si>
+    <t>mSec30_q5_units</t>
+  </si>
+  <si>
+    <t>mSec30_q5_code</t>
+  </si>
+  <si>
+    <t>mSec30_q6_units</t>
+  </si>
+  <si>
+    <t>mSec30_q6_code</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Census ID</t>
+  </si>
+  <si>
+    <t>Food ID</t>
+  </si>
+  <si>
+    <t>Food Item</t>
+  </si>
+  <si>
+    <t>In the last month, did you consume the following item?</t>
+  </si>
+  <si>
+    <t>In the last month, how many units did you purchase?</t>
+  </si>
+  <si>
+    <t>Unit code of purchase item?</t>
+  </si>
+  <si>
+    <t>Price per unit of the item?</t>
+  </si>
+  <si>
+    <t>Last week, how many units did you consume which recieve in kind as wages/salary?</t>
+  </si>
+  <si>
+    <t>Unit code of recieved item as wage/salary?</t>
+  </si>
+  <si>
+    <t>Last month, how many units did you consume which you produced on your own?</t>
+  </si>
+  <si>
+    <t>Unit code of produced item on your own?</t>
+  </si>
+  <si>
+    <t>Last month, units consume which recieved as gift/assistance from govt/private?</t>
+  </si>
+  <si>
+    <t>Unit code of recieved item as gift/assistance?</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>str35</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>choices</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>yesno</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>list_name</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>yesno</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Kilogram</t>
+  </si>
+  <si>
+    <t>Gram</t>
+  </si>
+  <si>
+    <t>Liter</t>
+  </si>
+  <si>
+    <t>Bottle</t>
+  </si>
+  <si>
+    <t>Packet</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Dozen</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
   <si>
     <t>name</t>
   </si>
@@ -764,198 +998,198 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>156</v>
+        <v>234</v>
       </c>
       <c r="B1" t="s">
-        <v>170</v>
+        <v>248</v>
       </c>
       <c r="C1" t="s">
-        <v>184</v>
+        <v>262</v>
       </c>
       <c r="D1" t="s">
-        <v>197</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>157</v>
+        <v>235</v>
       </c>
       <c r="B2" t="s">
-        <v>171</v>
+        <v>249</v>
       </c>
       <c r="C2" t="s">
-        <v>185</v>
+        <v>263</v>
       </c>
       <c r="D2" t="s">
-        <v>198</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>158</v>
+        <v>236</v>
       </c>
       <c r="B3" t="s">
-        <v>172</v>
+        <v>250</v>
       </c>
       <c r="C3" t="s">
-        <v>186</v>
+        <v>264</v>
       </c>
       <c r="D3" t="s">
-        <v>199</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>159</v>
+        <v>237</v>
       </c>
       <c r="B4" t="s">
-        <v>173</v>
+        <v>251</v>
       </c>
       <c r="C4" t="s">
-        <v>187</v>
+        <v>265</v>
       </c>
       <c r="D4" t="s">
-        <v>200</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>160</v>
+        <v>238</v>
       </c>
       <c r="B5" t="s">
-        <v>174</v>
+        <v>252</v>
       </c>
       <c r="C5" t="s">
-        <v>188</v>
+        <v>266</v>
       </c>
       <c r="D5" t="s">
-        <v>201</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>161</v>
+        <v>239</v>
       </c>
       <c r="B6" t="s">
-        <v>175</v>
+        <v>253</v>
       </c>
       <c r="C6" t="s">
-        <v>189</v>
+        <v>267</v>
       </c>
       <c r="D6" t="s">
-        <v>202</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>162</v>
+        <v>240</v>
       </c>
       <c r="B7" t="s">
-        <v>176</v>
+        <v>254</v>
       </c>
       <c r="C7" t="s">
-        <v>190</v>
+        <v>268</v>
       </c>
       <c r="D7" t="s">
-        <v>203</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>163</v>
+        <v>241</v>
       </c>
       <c r="B8" t="s">
-        <v>177</v>
+        <v>255</v>
       </c>
       <c r="C8" t="s">
-        <v>191</v>
+        <v>269</v>
       </c>
       <c r="D8" t="s">
-        <v>204</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>164</v>
+        <v>242</v>
       </c>
       <c r="B9" t="s">
-        <v>178</v>
+        <v>256</v>
       </c>
       <c r="C9" t="s">
-        <v>191</v>
+        <v>269</v>
       </c>
       <c r="D9" t="s">
-        <v>205</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>165</v>
+        <v>243</v>
       </c>
       <c r="B10" t="s">
-        <v>179</v>
+        <v>257</v>
       </c>
       <c r="C10" t="s">
-        <v>192</v>
+        <v>270</v>
       </c>
       <c r="D10" t="s">
-        <v>206</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>166</v>
+        <v>244</v>
       </c>
       <c r="B11" t="s">
-        <v>180</v>
+        <v>258</v>
       </c>
       <c r="C11" t="s">
-        <v>193</v>
+        <v>271</v>
       </c>
       <c r="D11" t="s">
-        <v>207</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>167</v>
+        <v>245</v>
       </c>
       <c r="B12" t="s">
-        <v>181</v>
+        <v>259</v>
       </c>
       <c r="C12" t="s">
-        <v>194</v>
+        <v>272</v>
       </c>
       <c r="D12" t="s">
-        <v>208</v>
+        <v>286</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>168</v>
+        <v>246</v>
       </c>
       <c r="B13" t="s">
-        <v>182</v>
+        <v>260</v>
       </c>
       <c r="C13" t="s">
-        <v>195</v>
+        <v>273</v>
       </c>
       <c r="D13" t="s">
-        <v>209</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>169</v>
+        <v>247</v>
       </c>
       <c r="B14" t="s">
-        <v>183</v>
+        <v>261</v>
       </c>
       <c r="C14" t="s">
-        <v>196</v>
+        <v>274</v>
       </c>
       <c r="D14" t="s">
-        <v>210</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -969,112 +1203,112 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>211</v>
+        <v>289</v>
       </c>
       <c r="B1" t="s">
-        <v>214</v>
+        <v>292</v>
       </c>
       <c r="C1" t="s">
-        <v>224</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>212</v>
+        <v>290</v>
       </c>
       <c r="B2" t="s">
-        <v>215</v>
+        <v>293</v>
       </c>
       <c r="C2" t="s">
-        <v>225</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>212</v>
+        <v>290</v>
       </c>
       <c r="B3" t="s">
-        <v>216</v>
+        <v>294</v>
       </c>
       <c r="C3" t="s">
-        <v>226</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>212</v>
+        <v>290</v>
       </c>
       <c r="B4" t="s">
-        <v>217</v>
+        <v>295</v>
       </c>
       <c r="C4" t="s">
-        <v>227</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>212</v>
+        <v>290</v>
       </c>
       <c r="B5" t="s">
-        <v>218</v>
+        <v>296</v>
       </c>
       <c r="C5" t="s">
-        <v>228</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>212</v>
+        <v>290</v>
       </c>
       <c r="B6" t="s">
-        <v>219</v>
+        <v>297</v>
       </c>
       <c r="C6" t="s">
-        <v>229</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>212</v>
+        <v>290</v>
       </c>
       <c r="B7" t="s">
-        <v>220</v>
+        <v>298</v>
       </c>
       <c r="C7" t="s">
-        <v>230</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>212</v>
+        <v>290</v>
       </c>
       <c r="B8" t="s">
-        <v>221</v>
+        <v>299</v>
       </c>
       <c r="C8" t="s">
-        <v>231</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>213</v>
+        <v>291</v>
       </c>
       <c r="B9" t="s">
-        <v>222</v>
+        <v>300</v>
       </c>
       <c r="C9" t="s">
-        <v>232</v>
+        <v>310</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>213</v>
+        <v>291</v>
       </c>
       <c r="B10" t="s">
-        <v>223</v>
+        <v>301</v>
       </c>
       <c r="C10" t="s">
-        <v>233</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
